--- a/05_output/aggregated/xlsx/Aggregated.xlsx
+++ b/05_output/aggregated/xlsx/Aggregated.xlsx
@@ -38,283 +38,283 @@
     <t>Model management</t>
   </si>
   <si>
+    <t>Communication</t>
+  </si>
+  <si>
     <t>Collaboration</t>
   </si>
   <si>
-    <t>Communication</t>
-  </si>
-  <si>
     <t>Editors and modeling environments</t>
   </si>
   <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Conflicts and consistency</t>
+  </si>
+  <si>
+    <t>Collaboration dynamics</t>
+  </si>
+  <si>
     <t>Model manipulation</t>
   </si>
   <si>
+    <t>Models and languages</t>
+  </si>
+  <si>
     <t>Versioning</t>
   </si>
   <si>
-    <t>Conflicts and consistency</t>
-  </si>
-  <si>
-    <t>Collaboration dynamics</t>
-  </si>
-  <si>
-    <t>Models and languages</t>
-  </si>
-  <si>
-    <t>Integration</t>
+    <t>Stakeholder management</t>
   </si>
   <si>
     <t>Asynchronous communication</t>
   </si>
   <si>
-    <t>Stakeholder management</t>
+    <t>Network architecture and robustness</t>
   </si>
   <si>
     <t>Synchronous communication</t>
   </si>
   <si>
-    <t>Network architecture and robustness</t>
-  </si>
-  <si>
     <t>Web-based modeling environment</t>
   </si>
   <si>
+    <t>Built-in communication tools</t>
+  </si>
+  <si>
+    <t>Conflict awareness</t>
+  </si>
+  <si>
+    <t>Real-time collaboration</t>
+  </si>
+  <si>
     <t>Model transformations</t>
   </si>
   <si>
+    <t>Model debugging</t>
+  </si>
+  <si>
+    <t>Model testing</t>
+  </si>
+  <si>
+    <t>Multi-view modeling</t>
+  </si>
+  <si>
+    <t>Push notifications on conflicts</t>
+  </si>
+  <si>
     <t>Model merging</t>
   </si>
   <si>
-    <t>Conflict awareness</t>
-  </si>
-  <si>
-    <t>Model debugging</t>
-  </si>
-  <si>
-    <t>Real-time collaboration</t>
-  </si>
-  <si>
-    <t>Multi-view modeling</t>
+    <t>Semantic model differencing</t>
+  </si>
+  <si>
+    <t>Model execution</t>
   </si>
   <si>
     <t>Metrics of model complexity</t>
   </si>
   <si>
+    <t>Automation of resolution</t>
+  </si>
+  <si>
+    <t>User presence visualization</t>
+  </si>
+  <si>
+    <t>Prevention</t>
+  </si>
+  <si>
     <t>Model differencing</t>
   </si>
   <si>
-    <t>Model testing</t>
-  </si>
-  <si>
-    <t>Push notifications on conflicts</t>
-  </si>
-  <si>
-    <t>Built-in communication tools</t>
-  </si>
-  <si>
-    <t>Automation of resolution</t>
-  </si>
-  <si>
-    <t>Semantic model differencing</t>
-  </si>
-  <si>
-    <t>Prevention</t>
+    <t>Conflicts table</t>
+  </si>
+  <si>
+    <t>Metrics of degree of conflict/inconsistency</t>
+  </si>
+  <si>
+    <t>Collaboration at metamodel level</t>
+  </si>
+  <si>
+    <t>Internal versioning</t>
+  </si>
+  <si>
+    <t>Failure recovery</t>
+  </si>
+  <si>
+    <t>Wiki</t>
+  </si>
+  <si>
+    <t>Editors supporting multiple types of notations</t>
+  </si>
+  <si>
+    <t>Cloud-based architecture</t>
+  </si>
+  <si>
+    <t>Textual editors</t>
+  </si>
+  <si>
+    <t>Integration with build/DevOps</t>
+  </si>
+  <si>
+    <t>RBAC</t>
+  </si>
+  <si>
+    <t>Model browsing/search</t>
+  </si>
+  <si>
+    <t>Tags</t>
   </si>
   <si>
     <t>Human-Machine collaboration</t>
   </si>
   <si>
-    <t>Model execution</t>
-  </si>
-  <si>
-    <t>Internal versioning</t>
-  </si>
-  <si>
-    <t>Conflicts table</t>
-  </si>
-  <si>
-    <t>Collaboration at metamodel level</t>
-  </si>
-  <si>
-    <t>Editors supporting multiple types of notations</t>
-  </si>
-  <si>
-    <t>User presence visualization</t>
-  </si>
-  <si>
-    <t>Textual editors</t>
-  </si>
-  <si>
-    <t>Metrics of degree of conflict/inconsistency</t>
+    <t>Tabular editors</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>Importing external languages into the modeling environment</t>
+  </si>
+  <si>
+    <t>Annotations</t>
   </si>
   <si>
     <t>Natural Language Processing</t>
   </si>
   <si>
-    <t>Tags</t>
-  </si>
-  <si>
-    <t>Integration with build/DevOps</t>
+    <t>Projectional editing</t>
+  </si>
+  <si>
+    <t>Eventual consistency</t>
+  </si>
+  <si>
+    <t>Change review sessions</t>
+  </si>
+  <si>
+    <t>Proposals</t>
+  </si>
+  <si>
+    <t>Commit messages</t>
+  </si>
+  <si>
+    <t>External version control</t>
+  </si>
+  <si>
+    <t>Sticky notes</t>
+  </si>
+  <si>
+    <t>Database integration</t>
   </si>
   <si>
     <t>Round-trip engineering</t>
   </si>
   <si>
-    <t>Feedback</t>
-  </si>
-  <si>
-    <t>Wiki</t>
-  </si>
-  <si>
-    <t>Database integration</t>
-  </si>
-  <si>
-    <t>Change review sessions</t>
-  </si>
-  <si>
-    <t>Commit messages</t>
-  </si>
-  <si>
-    <t>External version control</t>
-  </si>
-  <si>
-    <t>Failure recovery</t>
-  </si>
-  <si>
-    <t>Tabular editors</t>
-  </si>
-  <si>
-    <t>Annotations</t>
+    <t>Voting</t>
+  </si>
+  <si>
+    <t>Call-For-Attention</t>
+  </si>
+  <si>
+    <t>Authentication/authorization from corporate database</t>
+  </si>
+  <si>
+    <t>Locking</t>
+  </si>
+  <si>
+    <t>Anonymous access</t>
+  </si>
+  <si>
+    <t>Version branching</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
   <si>
     <t>Code generation</t>
   </si>
   <si>
-    <t>Eventual consistency</t>
-  </si>
-  <si>
-    <t>RBAC</t>
-  </si>
-  <si>
-    <t>History</t>
-  </si>
-  <si>
-    <t>Projectional editing</t>
-  </si>
-  <si>
-    <t>Cloud-based architecture</t>
-  </si>
-  <si>
-    <t>Sticky notes</t>
-  </si>
-  <si>
     <t>Manual resolution</t>
   </si>
   <si>
     <t>Undo-redo</t>
   </si>
   <si>
-    <t>Model browsing/search</t>
-  </si>
-  <si>
-    <t>Importing external languages into the modeling environment</t>
-  </si>
-  <si>
-    <t>Version branching</t>
-  </si>
-  <si>
     <t>Model validation</t>
   </si>
   <si>
+    <t>Forum</t>
+  </si>
+  <si>
     <t>Screen sharing</t>
   </si>
   <si>
-    <t>Locking</t>
-  </si>
-  <si>
-    <t>Voting</t>
-  </si>
-  <si>
-    <t>Anonymous access</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Forum</t>
-  </si>
-  <si>
-    <t>Call-For-Attention</t>
-  </si>
-  <si>
-    <t>Authentication/authorization from corporate database</t>
-  </si>
-  <si>
     <t>Domain-specific modeling languages</t>
   </si>
   <si>
-    <t>Proposals</t>
+    <t>Tree-based editors</t>
+  </si>
+  <si>
+    <t>Face-to-face</t>
+  </si>
+  <si>
+    <t>Voice</t>
+  </si>
+  <si>
+    <t>Sketch-based editors</t>
   </si>
   <si>
     <t>Reviews</t>
   </si>
   <si>
-    <t>Sketch-based editors</t>
-  </si>
-  <si>
     <t>Integrated professional-social networking</t>
   </si>
   <si>
-    <t>Tree-based editors</t>
-  </si>
-  <si>
-    <t>Voice</t>
+    <t>Lazy loading of the models/workspace</t>
+  </si>
+  <si>
+    <t>P2P architecture</t>
+  </si>
+  <si>
+    <t>Multimedia annotations</t>
+  </si>
+  <si>
+    <t>Collaboration at model level</t>
   </si>
   <si>
     <t>Audio</t>
   </si>
   <si>
-    <t>Face-to-face</t>
-  </si>
-  <si>
-    <t>P2P architecture</t>
-  </si>
-  <si>
-    <t>Lazy loading of the models/workspace</t>
+    <t>Visual editors</t>
   </si>
   <si>
     <t>Offline collaboration</t>
   </si>
   <si>
-    <t>Multimedia annotations</t>
-  </si>
-  <si>
-    <t>Collaboration at model level</t>
-  </si>
-  <si>
-    <t>Visual editors</t>
-  </si>
-  <si>
     <t>Chat</t>
   </si>
   <si>
+    <t>General-purpose modeling languages</t>
+  </si>
+  <si>
+    <t>Hand gestures</t>
+  </si>
+  <si>
+    <t>Mobile-based modeling environment</t>
+  </si>
+  <si>
+    <t>User identification</t>
+  </si>
+  <si>
     <t>External communication tools</t>
   </si>
   <si>
-    <t>General-purpose modeling languages</t>
-  </si>
-  <si>
-    <t>User identification</t>
-  </si>
-  <si>
     <t>Email</t>
-  </si>
-  <si>
-    <t>Hand gestures</t>
-  </si>
-  <si>
-    <t>Mobile-based modeling environment</t>
   </si>
   <si>
     <t>Desktop-based modeling environment</t>
@@ -402,21 +402,21 @@
         <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>23.33</v>
+        <v>23.68</v>
       </c>
       <c r="E2" t="n">
-        <v>83.87</v>
+        <v>87.18</v>
       </c>
       <c r="F2" t="n">
-        <v>60.54</v>
+        <v>63.5</v>
       </c>
       <c r="G2" t="n">
-        <v>50.77</v>
+        <v>55.35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -425,21 +425,21 @@
         <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>36.67</v>
+        <v>18.42</v>
       </c>
       <c r="E3" t="n">
-        <v>90.0</v>
+        <v>78.38</v>
       </c>
       <c r="F3" t="n">
-        <v>53.33</v>
+        <v>59.96</v>
       </c>
       <c r="G3" t="n">
-        <v>48.0</v>
+        <v>46.99</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -448,21 +448,21 @@
         <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>48.39</v>
+        <v>38.89</v>
       </c>
       <c r="E4" t="n">
-        <v>96.77</v>
+        <v>89.47</v>
       </c>
       <c r="F4" t="n">
-        <v>48.39</v>
+        <v>50.58</v>
       </c>
       <c r="G4" t="n">
-        <v>46.83</v>
+        <v>45.26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -471,16 +471,16 @@
         <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>39.29</v>
+        <v>47.37</v>
       </c>
       <c r="E5" t="n">
-        <v>90.0</v>
+        <v>94.87</v>
       </c>
       <c r="F5" t="n">
-        <v>50.71</v>
+        <v>47.5</v>
       </c>
       <c r="G5" t="n">
-        <v>45.64</v>
+        <v>45.07</v>
       </c>
     </row>
     <row r="6">
@@ -488,27 +488,27 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>40.0</v>
+        <v>36.84</v>
       </c>
       <c r="E6" t="n">
-        <v>90.32</v>
+        <v>86.84</v>
       </c>
       <c r="F6" t="n">
-        <v>50.32</v>
+        <v>50.0</v>
       </c>
       <c r="G6" t="n">
-        <v>45.45</v>
+        <v>43.42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -517,16 +517,16 @@
         <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>46.67</v>
+        <v>34.21</v>
       </c>
       <c r="E7" t="n">
-        <v>93.55</v>
+        <v>84.62</v>
       </c>
       <c r="F7" t="n">
-        <v>46.88</v>
+        <v>50.4</v>
       </c>
       <c r="G7" t="n">
-        <v>43.86</v>
+        <v>42.65</v>
       </c>
     </row>
     <row r="8">
@@ -534,22 +534,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
       </c>
       <c r="D8" t="n">
-        <v>51.61</v>
+        <v>20.51</v>
       </c>
       <c r="E8" t="n">
-        <v>96.77</v>
+        <v>74.36</v>
       </c>
       <c r="F8" t="n">
-        <v>45.16</v>
+        <v>53.85</v>
       </c>
       <c r="G8" t="n">
-        <v>43.7</v>
+        <v>40.04</v>
       </c>
     </row>
     <row r="9">
@@ -557,27 +557,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
       </c>
       <c r="D9" t="n">
-        <v>10.0</v>
+        <v>56.41</v>
       </c>
       <c r="E9" t="n">
-        <v>70.0</v>
+        <v>97.44</v>
       </c>
       <c r="F9" t="n">
-        <v>60.0</v>
+        <v>41.03</v>
       </c>
       <c r="G9" t="n">
-        <v>42.0</v>
+        <v>39.97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -586,113 +586,113 @@
         <v>29</v>
       </c>
       <c r="D10" t="n">
-        <v>53.33</v>
+        <v>17.65</v>
       </c>
       <c r="E10" t="n">
-        <v>96.67</v>
+        <v>72.22</v>
       </c>
       <c r="F10" t="n">
-        <v>43.33</v>
+        <v>54.58</v>
       </c>
       <c r="G10" t="n">
-        <v>41.89</v>
+        <v>39.42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>19.35</v>
+        <v>56.41</v>
       </c>
       <c r="E11" t="n">
-        <v>74.19</v>
+        <v>94.87</v>
       </c>
       <c r="F11" t="n">
-        <v>54.84</v>
+        <v>38.46</v>
       </c>
       <c r="G11" t="n">
-        <v>40.69</v>
+        <v>36.49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
       </c>
       <c r="D12" t="n">
-        <v>23.08</v>
+        <v>52.63</v>
       </c>
       <c r="E12" t="n">
-        <v>75.86</v>
+        <v>92.11</v>
       </c>
       <c r="F12" t="n">
-        <v>52.79</v>
+        <v>39.47</v>
       </c>
       <c r="G12" t="n">
-        <v>40.04</v>
+        <v>36.36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
       </c>
       <c r="D13" t="n">
-        <v>23.33</v>
+        <v>43.24</v>
       </c>
       <c r="E13" t="n">
-        <v>75.86</v>
+        <v>82.05</v>
       </c>
       <c r="F13" t="n">
-        <v>52.53</v>
+        <v>38.81</v>
       </c>
       <c r="G13" t="n">
-        <v>39.85</v>
+        <v>31.84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>33</v>
       </c>
       <c r="D14" t="n">
-        <v>36.67</v>
+        <v>13.16</v>
       </c>
       <c r="E14" t="n">
-        <v>82.76</v>
+        <v>63.16</v>
       </c>
       <c r="F14" t="n">
-        <v>46.09</v>
+        <v>50.0</v>
       </c>
       <c r="G14" t="n">
-        <v>38.15</v>
+        <v>31.58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -701,85 +701,85 @@
         <v>34</v>
       </c>
       <c r="D15" t="n">
-        <v>53.33</v>
+        <v>34.21</v>
       </c>
       <c r="E15" t="n">
-        <v>93.33</v>
+        <v>75.68</v>
       </c>
       <c r="F15" t="n">
-        <v>40.0</v>
+        <v>41.47</v>
       </c>
       <c r="G15" t="n">
-        <v>37.33</v>
+        <v>31.38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
         <v>35</v>
       </c>
       <c r="D16" t="n">
-        <v>44.83</v>
+        <v>28.12</v>
       </c>
       <c r="E16" t="n">
-        <v>86.67</v>
+        <v>70.59</v>
       </c>
       <c r="F16" t="n">
-        <v>41.84</v>
+        <v>42.46</v>
       </c>
       <c r="G16" t="n">
-        <v>36.26</v>
+        <v>29.97</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
       </c>
       <c r="D17" t="n">
-        <v>28.0</v>
+        <v>45.95</v>
       </c>
       <c r="E17" t="n">
-        <v>73.91</v>
+        <v>81.58</v>
       </c>
       <c r="F17" t="n">
-        <v>45.91</v>
+        <v>35.63</v>
       </c>
       <c r="G17" t="n">
-        <v>33.94</v>
+        <v>29.07</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>37</v>
       </c>
       <c r="D18" t="n">
-        <v>48.28</v>
+        <v>57.89</v>
       </c>
       <c r="E18" t="n">
-        <v>87.1</v>
+        <v>89.47</v>
       </c>
       <c r="F18" t="n">
-        <v>38.82</v>
+        <v>31.58</v>
       </c>
       <c r="G18" t="n">
-        <v>33.81</v>
+        <v>28.25</v>
       </c>
     </row>
     <row r="19">
@@ -787,22 +787,22 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
         <v>38</v>
       </c>
       <c r="D19" t="n">
-        <v>51.72</v>
+        <v>7.89</v>
       </c>
       <c r="E19" t="n">
-        <v>89.29</v>
+        <v>57.14</v>
       </c>
       <c r="F19" t="n">
-        <v>37.56</v>
+        <v>49.25</v>
       </c>
       <c r="G19" t="n">
-        <v>33.54</v>
+        <v>28.14</v>
       </c>
     </row>
     <row r="20">
@@ -810,22 +810,22 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
         <v>39</v>
       </c>
       <c r="D20" t="n">
-        <v>10.0</v>
+        <v>17.14</v>
       </c>
       <c r="E20" t="n">
-        <v>62.96</v>
+        <v>62.16</v>
       </c>
       <c r="F20" t="n">
-        <v>52.96</v>
+        <v>45.02</v>
       </c>
       <c r="G20" t="n">
-        <v>33.35</v>
+        <v>27.98</v>
       </c>
     </row>
     <row r="21">
@@ -839,154 +839,154 @@
         <v>40</v>
       </c>
       <c r="D21" t="n">
-        <v>35.48</v>
+        <v>33.33</v>
       </c>
       <c r="E21" t="n">
-        <v>77.42</v>
+        <v>71.79</v>
       </c>
       <c r="F21" t="n">
-        <v>41.94</v>
+        <v>38.46</v>
       </c>
       <c r="G21" t="n">
-        <v>32.47</v>
+        <v>27.61</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
         <v>41</v>
       </c>
       <c r="D22" t="n">
-        <v>50.0</v>
+        <v>54.05</v>
       </c>
       <c r="E22" t="n">
-        <v>86.67</v>
+        <v>86.11</v>
       </c>
       <c r="F22" t="n">
-        <v>36.67</v>
+        <v>32.06</v>
       </c>
       <c r="G22" t="n">
-        <v>31.78</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
         <v>42</v>
       </c>
       <c r="D23" t="n">
-        <v>32.0</v>
+        <v>38.71</v>
       </c>
       <c r="E23" t="n">
-        <v>74.07</v>
+        <v>74.29</v>
       </c>
       <c r="F23" t="n">
-        <v>42.07</v>
+        <v>35.58</v>
       </c>
       <c r="G23" t="n">
-        <v>31.17</v>
+        <v>26.43</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
         <v>43</v>
       </c>
       <c r="D24" t="n">
-        <v>51.61</v>
+        <v>44.74</v>
       </c>
       <c r="E24" t="n">
-        <v>87.1</v>
+        <v>77.78</v>
       </c>
       <c r="F24" t="n">
-        <v>35.48</v>
+        <v>33.04</v>
       </c>
       <c r="G24" t="n">
-        <v>30.91</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
         <v>44</v>
       </c>
       <c r="D25" t="n">
-        <v>22.22</v>
+        <v>55.26</v>
       </c>
       <c r="E25" t="n">
-        <v>65.52</v>
+        <v>84.21</v>
       </c>
       <c r="F25" t="n">
-        <v>43.3</v>
+        <v>28.95</v>
       </c>
       <c r="G25" t="n">
-        <v>28.37</v>
+        <v>24.38</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
         <v>45</v>
       </c>
       <c r="D26" t="n">
-        <v>6.67</v>
+        <v>54.29</v>
       </c>
       <c r="E26" t="n">
-        <v>55.17</v>
+        <v>83.33</v>
       </c>
       <c r="F26" t="n">
-        <v>48.51</v>
+        <v>29.05</v>
       </c>
       <c r="G26" t="n">
-        <v>26.76</v>
+        <v>24.21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
         <v>46</v>
       </c>
       <c r="D27" t="n">
-        <v>35.48</v>
+        <v>56.41</v>
       </c>
       <c r="E27" t="n">
-        <v>72.41</v>
+        <v>84.62</v>
       </c>
       <c r="F27" t="n">
-        <v>36.93</v>
+        <v>28.21</v>
       </c>
       <c r="G27" t="n">
-        <v>26.74</v>
+        <v>23.87</v>
       </c>
     </row>
     <row r="28">
@@ -994,183 +994,183 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
         <v>47</v>
       </c>
       <c r="D28" t="n">
-        <v>46.67</v>
+        <v>52.63</v>
       </c>
       <c r="E28" t="n">
-        <v>80.0</v>
+        <v>81.58</v>
       </c>
       <c r="F28" t="n">
-        <v>33.33</v>
+        <v>28.95</v>
       </c>
       <c r="G28" t="n">
-        <v>26.67</v>
+        <v>23.61</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
         <v>48</v>
       </c>
       <c r="D29" t="n">
-        <v>32.26</v>
+        <v>70.27</v>
       </c>
       <c r="E29" t="n">
-        <v>70.0</v>
+        <v>94.87</v>
       </c>
       <c r="F29" t="n">
-        <v>37.74</v>
+        <v>24.6</v>
       </c>
       <c r="G29" t="n">
-        <v>26.42</v>
+        <v>23.34</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
         <v>49</v>
       </c>
       <c r="D30" t="n">
-        <v>60.0</v>
+        <v>76.92</v>
       </c>
       <c r="E30" t="n">
-        <v>89.29</v>
+        <v>100.0</v>
       </c>
       <c r="F30" t="n">
-        <v>29.29</v>
+        <v>23.08</v>
       </c>
       <c r="G30" t="n">
-        <v>26.15</v>
+        <v>23.08</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
         <v>50</v>
       </c>
       <c r="D31" t="n">
-        <v>46.67</v>
+        <v>34.21</v>
       </c>
       <c r="E31" t="n">
-        <v>79.31</v>
+        <v>67.57</v>
       </c>
       <c r="F31" t="n">
-        <v>32.64</v>
+        <v>33.36</v>
       </c>
       <c r="G31" t="n">
-        <v>25.89</v>
+        <v>22.54</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
         <v>51</v>
       </c>
       <c r="D32" t="n">
-        <v>37.93</v>
+        <v>28.12</v>
       </c>
       <c r="E32" t="n">
-        <v>72.41</v>
+        <v>63.33</v>
       </c>
       <c r="F32" t="n">
-        <v>34.48</v>
+        <v>35.21</v>
       </c>
       <c r="G32" t="n">
-        <v>24.97</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
         <v>52</v>
       </c>
       <c r="D33" t="n">
-        <v>58.06</v>
+        <v>41.03</v>
       </c>
       <c r="E33" t="n">
-        <v>86.67</v>
+        <v>71.79</v>
       </c>
       <c r="F33" t="n">
-        <v>28.6</v>
+        <v>30.77</v>
       </c>
       <c r="G33" t="n">
-        <v>24.79</v>
+        <v>22.09</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C34" t="s">
         <v>53</v>
       </c>
       <c r="D34" t="n">
-        <v>66.67</v>
+        <v>65.79</v>
       </c>
       <c r="E34" t="n">
-        <v>93.1</v>
+        <v>88.89</v>
       </c>
       <c r="F34" t="n">
-        <v>26.44</v>
+        <v>23.1</v>
       </c>
       <c r="G34" t="n">
-        <v>24.61</v>
+        <v>20.53</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
         <v>54</v>
       </c>
       <c r="D35" t="n">
-        <v>67.74</v>
+        <v>21.05</v>
       </c>
       <c r="E35" t="n">
-        <v>93.55</v>
+        <v>56.76</v>
       </c>
       <c r="F35" t="n">
-        <v>25.81</v>
+        <v>35.7</v>
       </c>
       <c r="G35" t="n">
-        <v>24.14</v>
+        <v>20.26</v>
       </c>
     </row>
     <row r="36">
@@ -1178,22 +1178,22 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
         <v>55</v>
       </c>
       <c r="D36" t="n">
-        <v>48.0</v>
+        <v>43.59</v>
       </c>
       <c r="E36" t="n">
-        <v>78.57</v>
+        <v>71.79</v>
       </c>
       <c r="F36" t="n">
-        <v>30.57</v>
+        <v>28.21</v>
       </c>
       <c r="G36" t="n">
-        <v>24.02</v>
+        <v>20.25</v>
       </c>
     </row>
     <row r="37">
@@ -1201,68 +1201,68 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
         <v>56</v>
       </c>
       <c r="D37" t="n">
-        <v>41.94</v>
+        <v>7.89</v>
       </c>
       <c r="E37" t="n">
-        <v>74.19</v>
+        <v>48.65</v>
       </c>
       <c r="F37" t="n">
-        <v>32.26</v>
+        <v>40.75</v>
       </c>
       <c r="G37" t="n">
-        <v>23.93</v>
+        <v>19.83</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
         <v>57</v>
       </c>
       <c r="D38" t="n">
-        <v>41.94</v>
+        <v>21.21</v>
       </c>
       <c r="E38" t="n">
-        <v>74.19</v>
+        <v>56.25</v>
       </c>
       <c r="F38" t="n">
-        <v>32.26</v>
+        <v>35.04</v>
       </c>
       <c r="G38" t="n">
-        <v>23.93</v>
+        <v>19.71</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
         <v>58</v>
       </c>
       <c r="D39" t="n">
-        <v>67.74</v>
+        <v>21.21</v>
       </c>
       <c r="E39" t="n">
-        <v>93.33</v>
+        <v>56.25</v>
       </c>
       <c r="F39" t="n">
-        <v>25.59</v>
+        <v>35.04</v>
       </c>
       <c r="G39" t="n">
-        <v>23.89</v>
+        <v>19.71</v>
       </c>
     </row>
     <row r="40">
@@ -1270,22 +1270,22 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C40" t="s">
         <v>59</v>
       </c>
       <c r="D40" t="n">
-        <v>26.92</v>
+        <v>61.54</v>
       </c>
       <c r="E40" t="n">
-        <v>64.0</v>
+        <v>84.21</v>
       </c>
       <c r="F40" t="n">
-        <v>37.08</v>
+        <v>22.67</v>
       </c>
       <c r="G40" t="n">
-        <v>23.73</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="41">
@@ -1299,16 +1299,16 @@
         <v>60</v>
       </c>
       <c r="D41" t="n">
-        <v>72.41</v>
+        <v>28.57</v>
       </c>
       <c r="E41" t="n">
-        <v>96.77</v>
+        <v>60.0</v>
       </c>
       <c r="F41" t="n">
-        <v>24.36</v>
+        <v>31.43</v>
       </c>
       <c r="G41" t="n">
-        <v>23.57</v>
+        <v>18.86</v>
       </c>
     </row>
     <row r="42">
@@ -1316,45 +1316,45 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
         <v>61</v>
       </c>
       <c r="D42" t="n">
-        <v>77.42</v>
+        <v>68.42</v>
       </c>
       <c r="E42" t="n">
-        <v>100.0</v>
+        <v>89.19</v>
       </c>
       <c r="F42" t="n">
-        <v>22.58</v>
+        <v>20.77</v>
       </c>
       <c r="G42" t="n">
-        <v>22.58</v>
+        <v>18.52</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
         <v>62</v>
       </c>
       <c r="D43" t="n">
-        <v>16.0</v>
+        <v>69.23</v>
       </c>
       <c r="E43" t="n">
-        <v>56.0</v>
+        <v>89.74</v>
       </c>
       <c r="F43" t="n">
-        <v>40.0</v>
+        <v>20.51</v>
       </c>
       <c r="G43" t="n">
-        <v>22.4</v>
+        <v>18.41</v>
       </c>
     </row>
     <row r="44">
@@ -1362,68 +1362,68 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s">
         <v>63</v>
       </c>
       <c r="D44" t="n">
-        <v>55.56</v>
+        <v>18.42</v>
       </c>
       <c r="E44" t="n">
-        <v>82.14</v>
+        <v>52.78</v>
       </c>
       <c r="F44" t="n">
-        <v>26.59</v>
+        <v>34.36</v>
       </c>
       <c r="G44" t="n">
-        <v>21.84</v>
+        <v>18.13</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
         <v>64</v>
       </c>
       <c r="D45" t="n">
-        <v>20.0</v>
+        <v>37.84</v>
       </c>
       <c r="E45" t="n">
-        <v>57.14</v>
+        <v>64.86</v>
       </c>
       <c r="F45" t="n">
-        <v>37.14</v>
+        <v>27.03</v>
       </c>
       <c r="G45" t="n">
-        <v>21.22</v>
+        <v>17.53</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
         <v>65</v>
       </c>
       <c r="D46" t="n">
-        <v>66.67</v>
+        <v>31.58</v>
       </c>
       <c r="E46" t="n">
-        <v>90.0</v>
+        <v>60.53</v>
       </c>
       <c r="F46" t="n">
-        <v>23.33</v>
+        <v>28.95</v>
       </c>
       <c r="G46" t="n">
-        <v>21.0</v>
+        <v>17.52</v>
       </c>
     </row>
     <row r="47">
@@ -1431,73 +1431,73 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C47" t="s">
         <v>66</v>
       </c>
       <c r="D47" t="n">
-        <v>72.41</v>
+        <v>10.81</v>
       </c>
       <c r="E47" t="n">
-        <v>93.33</v>
+        <v>47.22</v>
       </c>
       <c r="F47" t="n">
-        <v>20.92</v>
+        <v>36.41</v>
       </c>
       <c r="G47" t="n">
-        <v>19.52</v>
+        <v>17.19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s">
         <v>67</v>
       </c>
       <c r="D48" t="n">
-        <v>80.65</v>
+        <v>17.14</v>
       </c>
       <c r="E48" t="n">
-        <v>100.0</v>
+        <v>50.0</v>
       </c>
       <c r="F48" t="n">
-        <v>19.35</v>
+        <v>32.86</v>
       </c>
       <c r="G48" t="n">
-        <v>19.35</v>
+        <v>16.43</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C49" t="s">
         <v>68</v>
       </c>
       <c r="D49" t="n">
-        <v>22.58</v>
+        <v>71.79</v>
       </c>
       <c r="E49" t="n">
-        <v>56.67</v>
+        <v>89.74</v>
       </c>
       <c r="F49" t="n">
-        <v>34.09</v>
+        <v>17.95</v>
       </c>
       <c r="G49" t="n">
-        <v>19.32</v>
+        <v>16.11</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B50" t="s">
         <v>12</v>
@@ -1506,39 +1506,39 @@
         <v>69</v>
       </c>
       <c r="D50" t="n">
-        <v>61.29</v>
+        <v>55.26</v>
       </c>
       <c r="E50" t="n">
-        <v>83.87</v>
+        <v>76.32</v>
       </c>
       <c r="F50" t="n">
-        <v>22.58</v>
+        <v>21.05</v>
       </c>
       <c r="G50" t="n">
-        <v>18.94</v>
+        <v>16.07</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C51" t="s">
         <v>70</v>
       </c>
       <c r="D51" t="n">
-        <v>77.42</v>
+        <v>18.92</v>
       </c>
       <c r="E51" t="n">
-        <v>96.77</v>
+        <v>50.0</v>
       </c>
       <c r="F51" t="n">
-        <v>19.35</v>
+        <v>31.08</v>
       </c>
       <c r="G51" t="n">
-        <v>18.73</v>
+        <v>15.54</v>
       </c>
     </row>
     <row r="52">
@@ -1546,91 +1546,91 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
         <v>71</v>
       </c>
       <c r="D52" t="n">
-        <v>77.42</v>
+        <v>66.67</v>
       </c>
       <c r="E52" t="n">
-        <v>96.77</v>
+        <v>84.62</v>
       </c>
       <c r="F52" t="n">
-        <v>19.35</v>
+        <v>17.95</v>
       </c>
       <c r="G52" t="n">
-        <v>18.73</v>
+        <v>15.19</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
         <v>72</v>
       </c>
       <c r="D53" t="n">
-        <v>56.67</v>
+        <v>82.05</v>
       </c>
       <c r="E53" t="n">
-        <v>80.0</v>
+        <v>97.44</v>
       </c>
       <c r="F53" t="n">
-        <v>23.33</v>
+        <v>15.38</v>
       </c>
       <c r="G53" t="n">
-        <v>18.67</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
         <v>73</v>
       </c>
       <c r="D54" t="n">
-        <v>13.33</v>
+        <v>74.36</v>
       </c>
       <c r="E54" t="n">
-        <v>50.0</v>
+        <v>89.74</v>
       </c>
       <c r="F54" t="n">
-        <v>36.67</v>
+        <v>15.38</v>
       </c>
       <c r="G54" t="n">
-        <v>18.33</v>
+        <v>13.81</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
         <v>74</v>
       </c>
       <c r="D55" t="n">
-        <v>13.79</v>
+        <v>74.36</v>
       </c>
       <c r="E55" t="n">
-        <v>50.0</v>
+        <v>89.47</v>
       </c>
       <c r="F55" t="n">
-        <v>36.21</v>
+        <v>15.11</v>
       </c>
       <c r="G55" t="n">
-        <v>18.1</v>
+        <v>13.52</v>
       </c>
     </row>
     <row r="56">
@@ -1638,22 +1638,22 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s">
         <v>75</v>
       </c>
       <c r="D56" t="n">
-        <v>70.97</v>
+        <v>68.42</v>
       </c>
       <c r="E56" t="n">
-        <v>90.32</v>
+        <v>84.21</v>
       </c>
       <c r="F56" t="n">
-        <v>19.35</v>
+        <v>15.79</v>
       </c>
       <c r="G56" t="n">
-        <v>17.48</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="57">
@@ -1661,45 +1661,45 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
         <v>76</v>
       </c>
       <c r="D57" t="n">
-        <v>20.0</v>
+        <v>78.38</v>
       </c>
       <c r="E57" t="n">
-        <v>51.72</v>
+        <v>92.11</v>
       </c>
       <c r="F57" t="n">
-        <v>31.72</v>
+        <v>13.73</v>
       </c>
       <c r="G57" t="n">
-        <v>16.41</v>
+        <v>12.64</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C58" t="s">
         <v>77</v>
       </c>
       <c r="D58" t="n">
-        <v>21.43</v>
+        <v>82.05</v>
       </c>
       <c r="E58" t="n">
-        <v>51.85</v>
+        <v>94.87</v>
       </c>
       <c r="F58" t="n">
-        <v>30.42</v>
+        <v>12.82</v>
       </c>
       <c r="G58" t="n">
-        <v>15.78</v>
+        <v>12.16</v>
       </c>
     </row>
     <row r="59">
@@ -1713,131 +1713,131 @@
         <v>78</v>
       </c>
       <c r="D59" t="n">
-        <v>74.19</v>
+        <v>15.79</v>
       </c>
       <c r="E59" t="n">
-        <v>90.32</v>
+        <v>43.24</v>
       </c>
       <c r="F59" t="n">
-        <v>16.13</v>
+        <v>27.45</v>
       </c>
       <c r="G59" t="n">
-        <v>14.57</v>
+        <v>11.87</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C60" t="s">
         <v>79</v>
       </c>
       <c r="D60" t="n">
-        <v>70.97</v>
+        <v>79.49</v>
       </c>
       <c r="E60" t="n">
-        <v>87.1</v>
+        <v>92.31</v>
       </c>
       <c r="F60" t="n">
-        <v>16.13</v>
+        <v>12.82</v>
       </c>
       <c r="G60" t="n">
-        <v>14.05</v>
+        <v>11.83</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C61" t="s">
         <v>80</v>
       </c>
       <c r="D61" t="n">
-        <v>25.0</v>
+        <v>74.36</v>
       </c>
       <c r="E61" t="n">
-        <v>51.85</v>
+        <v>87.18</v>
       </c>
       <c r="F61" t="n">
-        <v>26.85</v>
+        <v>12.82</v>
       </c>
       <c r="G61" t="n">
-        <v>13.92</v>
+        <v>11.18</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C62" t="s">
         <v>81</v>
       </c>
       <c r="D62" t="n">
-        <v>70.97</v>
+        <v>50.0</v>
       </c>
       <c r="E62" t="n">
-        <v>86.67</v>
+        <v>65.79</v>
       </c>
       <c r="F62" t="n">
-        <v>15.7</v>
+        <v>15.79</v>
       </c>
       <c r="G62" t="n">
-        <v>13.61</v>
+        <v>10.39</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C63" t="s">
         <v>82</v>
       </c>
       <c r="D63" t="n">
-        <v>11.11</v>
+        <v>63.16</v>
       </c>
       <c r="E63" t="n">
-        <v>40.74</v>
+        <v>76.32</v>
       </c>
       <c r="F63" t="n">
-        <v>29.63</v>
+        <v>13.16</v>
       </c>
       <c r="G63" t="n">
-        <v>12.07</v>
+        <v>10.04</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C64" t="s">
         <v>83</v>
       </c>
       <c r="D64" t="n">
-        <v>23.33</v>
+        <v>78.95</v>
       </c>
       <c r="E64" t="n">
-        <v>48.0</v>
+        <v>89.19</v>
       </c>
       <c r="F64" t="n">
-        <v>24.67</v>
+        <v>10.24</v>
       </c>
       <c r="G64" t="n">
-        <v>11.84</v>
+        <v>9.13</v>
       </c>
     </row>
     <row r="65">
@@ -1851,177 +1851,177 @@
         <v>84</v>
       </c>
       <c r="D65" t="n">
-        <v>53.33</v>
+        <v>8.82</v>
       </c>
       <c r="E65" t="n">
-        <v>70.0</v>
+        <v>34.29</v>
       </c>
       <c r="F65" t="n">
-        <v>16.67</v>
+        <v>25.46</v>
       </c>
       <c r="G65" t="n">
-        <v>11.67</v>
+        <v>8.73</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C66" t="s">
         <v>85</v>
       </c>
       <c r="D66" t="n">
-        <v>76.67</v>
+        <v>74.36</v>
       </c>
       <c r="E66" t="n">
-        <v>89.66</v>
+        <v>84.21</v>
       </c>
       <c r="F66" t="n">
-        <v>12.99</v>
+        <v>9.85</v>
       </c>
       <c r="G66" t="n">
-        <v>11.64</v>
+        <v>8.3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C67" t="s">
         <v>86</v>
       </c>
       <c r="D67" t="n">
-        <v>73.33</v>
+        <v>18.42</v>
       </c>
       <c r="E67" t="n">
-        <v>85.19</v>
+        <v>39.39</v>
       </c>
       <c r="F67" t="n">
-        <v>11.85</v>
+        <v>20.97</v>
       </c>
       <c r="G67" t="n">
-        <v>10.1</v>
+        <v>8.26</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C68" t="s">
         <v>87</v>
       </c>
       <c r="D68" t="n">
-        <v>60.0</v>
+        <v>62.16</v>
       </c>
       <c r="E68" t="n">
-        <v>73.33</v>
+        <v>72.97</v>
       </c>
       <c r="F68" t="n">
-        <v>13.33</v>
+        <v>10.81</v>
       </c>
       <c r="G68" t="n">
-        <v>9.78</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C69" t="s">
         <v>88</v>
       </c>
       <c r="D69" t="n">
-        <v>14.81</v>
+        <v>11.43</v>
       </c>
       <c r="E69" t="n">
-        <v>38.46</v>
+        <v>33.33</v>
       </c>
       <c r="F69" t="n">
-        <v>23.65</v>
+        <v>21.9</v>
       </c>
       <c r="G69" t="n">
-        <v>9.09</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C70" t="s">
         <v>89</v>
       </c>
       <c r="D70" t="n">
-        <v>60.0</v>
+        <v>13.16</v>
       </c>
       <c r="E70" t="n">
-        <v>72.41</v>
+        <v>32.35</v>
       </c>
       <c r="F70" t="n">
-        <v>12.41</v>
+        <v>19.2</v>
       </c>
       <c r="G70" t="n">
-        <v>8.99</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C71" t="s">
         <v>90</v>
       </c>
       <c r="D71" t="n">
-        <v>80.65</v>
+        <v>92.31</v>
       </c>
       <c r="E71" t="n">
-        <v>90.32</v>
+        <v>97.44</v>
       </c>
       <c r="F71" t="n">
-        <v>9.68</v>
+        <v>5.13</v>
       </c>
       <c r="G71" t="n">
-        <v>8.74</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C72" t="s">
         <v>91</v>
       </c>
       <c r="D72" t="n">
-        <v>16.67</v>
+        <v>67.57</v>
       </c>
       <c r="E72" t="n">
-        <v>38.46</v>
+        <v>74.29</v>
       </c>
       <c r="F72" t="n">
-        <v>21.79</v>
+        <v>6.72</v>
       </c>
       <c r="G72" t="n">
-        <v>8.38</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="73">
@@ -2029,137 +2029,137 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C73" t="s">
         <v>92</v>
       </c>
       <c r="D73" t="n">
-        <v>93.55</v>
+        <v>89.74</v>
       </c>
       <c r="E73" t="n">
-        <v>100.0</v>
+        <v>94.87</v>
       </c>
       <c r="F73" t="n">
-        <v>6.45</v>
+        <v>5.13</v>
       </c>
       <c r="G73" t="n">
-        <v>6.45</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C74" t="s">
         <v>93</v>
       </c>
       <c r="D74" t="n">
-        <v>90.32</v>
+        <v>84.62</v>
       </c>
       <c r="E74" t="n">
-        <v>96.77</v>
+        <v>89.74</v>
       </c>
       <c r="F74" t="n">
-        <v>6.45</v>
+        <v>5.13</v>
       </c>
       <c r="G74" t="n">
-        <v>6.24</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C75" t="s">
         <v>94</v>
       </c>
       <c r="D75" t="n">
-        <v>83.87</v>
+        <v>84.62</v>
       </c>
       <c r="E75" t="n">
-        <v>90.0</v>
+        <v>89.47</v>
       </c>
       <c r="F75" t="n">
-        <v>6.13</v>
+        <v>4.86</v>
       </c>
       <c r="G75" t="n">
-        <v>5.52</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C76" t="s">
         <v>95</v>
       </c>
       <c r="D76" t="n">
-        <v>76.67</v>
+        <v>61.54</v>
       </c>
       <c r="E76" t="n">
-        <v>82.14</v>
+        <v>66.67</v>
       </c>
       <c r="F76" t="n">
-        <v>5.48</v>
+        <v>5.13</v>
       </c>
       <c r="G76" t="n">
-        <v>4.5</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C77" t="s">
         <v>96</v>
       </c>
       <c r="D77" t="n">
-        <v>61.29</v>
+        <v>13.51</v>
       </c>
       <c r="E77" t="n">
-        <v>67.74</v>
+        <v>20.59</v>
       </c>
       <c r="F77" t="n">
-        <v>6.45</v>
+        <v>7.07</v>
       </c>
       <c r="G77" t="n">
-        <v>4.37</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C78" t="s">
         <v>97</v>
       </c>
       <c r="D78" t="n">
-        <v>89.66</v>
+        <v>5.41</v>
       </c>
       <c r="E78" t="n">
-        <v>93.1</v>
+        <v>10.53</v>
       </c>
       <c r="F78" t="n">
-        <v>3.45</v>
+        <v>5.12</v>
       </c>
       <c r="G78" t="n">
-        <v>3.21</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="79">
@@ -2173,62 +2173,62 @@
         <v>98</v>
       </c>
       <c r="D79" t="n">
-        <v>83.87</v>
+        <v>89.19</v>
       </c>
       <c r="E79" t="n">
-        <v>87.1</v>
+        <v>89.19</v>
       </c>
       <c r="F79" t="n">
-        <v>3.23</v>
+        <v>-0.0</v>
       </c>
       <c r="G79" t="n">
-        <v>2.81</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
         <v>99</v>
       </c>
       <c r="D80" t="n">
-        <v>17.24</v>
+        <v>81.58</v>
       </c>
       <c r="E80" t="n">
-        <v>26.92</v>
+        <v>77.78</v>
       </c>
       <c r="F80" t="n">
-        <v>9.68</v>
+        <v>-3.8</v>
       </c>
       <c r="G80" t="n">
-        <v>2.61</v>
+        <v>-2.96</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C81" t="s">
         <v>100</v>
       </c>
       <c r="D81" t="n">
-        <v>6.9</v>
+        <v>87.18</v>
       </c>
       <c r="E81" t="n">
-        <v>10.0</v>
+        <v>82.05</v>
       </c>
       <c r="F81" t="n">
-        <v>3.1</v>
+        <v>-5.13</v>
       </c>
       <c r="G81" t="n">
-        <v>0.31</v>
+        <v>-4.21</v>
       </c>
     </row>
     <row r="82">
@@ -2242,16 +2242,16 @@
         <v>101</v>
       </c>
       <c r="D82" t="n">
-        <v>87.1</v>
+        <v>89.74</v>
       </c>
       <c r="E82" t="n">
-        <v>77.42</v>
+        <v>71.79</v>
       </c>
       <c r="F82" t="n">
-        <v>-9.68</v>
+        <v>-17.95</v>
       </c>
       <c r="G82" t="n">
-        <v>-7.49</v>
+        <v>-12.89</v>
       </c>
     </row>
   </sheetData>

--- a/05_output/aggregated/xlsx/Aggregated.xlsx
+++ b/05_output/aggregated/xlsx/Aggregated.xlsx
@@ -38,27 +38,27 @@
     <t>Model management</t>
   </si>
   <si>
+    <t>Collaboration</t>
+  </si>
+  <si>
     <t>Communication</t>
   </si>
   <si>
-    <t>Collaboration</t>
-  </si>
-  <si>
     <t>Editors and modeling environments</t>
   </si>
   <si>
+    <t>Collaboration dynamics</t>
+  </si>
+  <si>
+    <t>Model manipulation</t>
+  </si>
+  <si>
     <t>Integration</t>
   </si>
   <si>
     <t>Conflicts and consistency</t>
   </si>
   <si>
-    <t>Collaboration dynamics</t>
-  </si>
-  <si>
-    <t>Model manipulation</t>
-  </si>
-  <si>
     <t>Models and languages</t>
   </si>
   <si>
@@ -68,184 +68,187 @@
     <t>Stakeholder management</t>
   </si>
   <si>
+    <t>Network architecture and robustness</t>
+  </si>
+  <si>
     <t>Asynchronous communication</t>
   </si>
   <si>
-    <t>Network architecture and robustness</t>
-  </si>
-  <si>
     <t>Synchronous communication</t>
   </si>
   <si>
     <t>Web-based modeling environment</t>
   </si>
   <si>
+    <t>Real-time collaboration</t>
+  </si>
+  <si>
+    <t>Model transformations</t>
+  </si>
+  <si>
+    <t>Model testing</t>
+  </si>
+  <si>
+    <t>Model debugging</t>
+  </si>
+  <si>
     <t>Built-in communication tools</t>
   </si>
   <si>
     <t>Conflict awareness</t>
   </si>
   <si>
-    <t>Real-time collaboration</t>
-  </si>
-  <si>
-    <t>Model transformations</t>
-  </si>
-  <si>
-    <t>Model debugging</t>
-  </si>
-  <si>
-    <t>Model testing</t>
+    <t>Push notifications on conflicts</t>
   </si>
   <si>
     <t>Multi-view modeling</t>
   </si>
   <si>
-    <t>Push notifications on conflicts</t>
-  </si>
-  <si>
     <t>Model merging</t>
   </si>
   <si>
     <t>Semantic model differencing</t>
   </si>
   <si>
+    <t>Metrics of model complexity</t>
+  </si>
+  <si>
     <t>Model execution</t>
   </si>
   <si>
-    <t>Metrics of model complexity</t>
-  </si>
-  <si>
     <t>Automation of resolution</t>
   </si>
   <si>
     <t>User presence visualization</t>
   </si>
   <si>
+    <t>Model differencing</t>
+  </si>
+  <si>
     <t>Prevention</t>
   </si>
   <si>
-    <t>Model differencing</t>
+    <t>Metrics of degree of conflict/inconsistency</t>
+  </si>
+  <si>
+    <t>Cloud-based architecture</t>
+  </si>
+  <si>
+    <t>Failure recovery</t>
   </si>
   <si>
     <t>Conflicts table</t>
   </si>
   <si>
-    <t>Metrics of degree of conflict/inconsistency</t>
+    <t>Internal versioning</t>
+  </si>
+  <si>
+    <t>Editors supporting multiple types of notations</t>
   </si>
   <si>
     <t>Collaboration at metamodel level</t>
   </si>
   <si>
-    <t>Internal versioning</t>
-  </si>
-  <si>
-    <t>Failure recovery</t>
+    <t>Model browsing/search</t>
+  </si>
+  <si>
+    <t>Integration with build/DevOps</t>
   </si>
   <si>
     <t>Wiki</t>
   </si>
   <si>
-    <t>Editors supporting multiple types of notations</t>
-  </si>
-  <si>
-    <t>Cloud-based architecture</t>
+    <t>Change review sessions</t>
+  </si>
+  <si>
+    <t>Natural Language Processing</t>
+  </si>
+  <si>
+    <t>RBAC</t>
+  </si>
+  <si>
+    <t>Tabular editors</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>Projectional editing</t>
   </si>
   <si>
     <t>Textual editors</t>
   </si>
   <si>
-    <t>Integration with build/DevOps</t>
-  </si>
-  <si>
-    <t>RBAC</t>
-  </si>
-  <si>
-    <t>Model browsing/search</t>
-  </si>
-  <si>
-    <t>Tags</t>
+    <t>Annotations</t>
   </si>
   <si>
     <t>Human-Machine collaboration</t>
   </si>
   <si>
-    <t>Tabular editors</t>
-  </si>
-  <si>
-    <t>Feedback</t>
-  </si>
-  <si>
     <t>Importing external languages into the modeling environment</t>
   </si>
   <si>
-    <t>Annotations</t>
-  </si>
-  <si>
-    <t>Natural Language Processing</t>
-  </si>
-  <si>
-    <t>Projectional editing</t>
+    <t>Commit messages</t>
+  </si>
+  <si>
+    <t>External version control</t>
   </si>
   <si>
     <t>Eventual consistency</t>
   </si>
   <si>
-    <t>Change review sessions</t>
+    <t>Manual resolution</t>
+  </si>
+  <si>
+    <t>Sticky notes</t>
+  </si>
+  <si>
+    <t>Model validation</t>
+  </si>
+  <si>
+    <t>Round-trip engineering</t>
+  </si>
+  <si>
+    <t>Database integration</t>
+  </si>
+  <si>
+    <t>Call-For-Attention</t>
+  </si>
+  <si>
+    <t>Voting</t>
   </si>
   <si>
     <t>Proposals</t>
   </si>
   <si>
-    <t>Commit messages</t>
-  </si>
-  <si>
-    <t>External version control</t>
-  </si>
-  <si>
-    <t>Sticky notes</t>
-  </si>
-  <si>
-    <t>Database integration</t>
-  </si>
-  <si>
-    <t>Round-trip engineering</t>
-  </si>
-  <si>
-    <t>Voting</t>
-  </si>
-  <si>
-    <t>Call-For-Attention</t>
+    <t>Code generation</t>
+  </si>
+  <si>
+    <t>Locking</t>
   </si>
   <si>
     <t>Authentication/authorization from corporate database</t>
   </si>
   <si>
-    <t>Locking</t>
-  </si>
-  <si>
     <t>Anonymous access</t>
   </si>
   <si>
     <t>Version branching</t>
   </si>
   <si>
+    <t>Undo-redo</t>
+  </si>
+  <si>
     <t>History</t>
   </si>
   <si>
     <t>Comments</t>
   </si>
   <si>
-    <t>Code generation</t>
-  </si>
-  <si>
-    <t>Manual resolution</t>
-  </si>
-  <si>
-    <t>Undo-redo</t>
-  </si>
-  <si>
-    <t>Model validation</t>
+    <t>Domain-specific modeling languages</t>
   </si>
   <si>
     <t>Forum</t>
@@ -254,61 +257,58 @@
     <t>Screen sharing</t>
   </si>
   <si>
-    <t>Domain-specific modeling languages</t>
+    <t>Sketch-based editors</t>
   </si>
   <si>
     <t>Tree-based editors</t>
   </si>
   <si>
+    <t>Reviews</t>
+  </si>
+  <si>
     <t>Face-to-face</t>
   </si>
   <si>
     <t>Voice</t>
   </si>
   <si>
-    <t>Sketch-based editors</t>
-  </si>
-  <si>
-    <t>Reviews</t>
+    <t>Lazy loading of the models/workspace</t>
+  </si>
+  <si>
+    <t>P2P architecture</t>
+  </si>
+  <si>
+    <t>Chat</t>
   </si>
   <si>
     <t>Integrated professional-social networking</t>
   </si>
   <si>
-    <t>Lazy loading of the models/workspace</t>
-  </si>
-  <si>
-    <t>P2P architecture</t>
-  </si>
-  <si>
     <t>Multimedia annotations</t>
   </si>
   <si>
+    <t>Audio</t>
+  </si>
+  <si>
     <t>Collaboration at model level</t>
   </si>
   <si>
-    <t>Audio</t>
-  </si>
-  <si>
     <t>Visual editors</t>
   </si>
   <si>
     <t>Offline collaboration</t>
   </si>
   <si>
-    <t>Chat</t>
-  </si>
-  <si>
     <t>General-purpose modeling languages</t>
   </si>
   <si>
+    <t>User identification</t>
+  </si>
+  <si>
     <t>Hand gestures</t>
   </si>
   <si>
     <t>Mobile-based modeling environment</t>
-  </si>
-  <si>
-    <t>User identification</t>
   </si>
   <si>
     <t>External communication tools</t>
@@ -402,16 +402,16 @@
         <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>23.68</v>
+        <v>22.5</v>
       </c>
       <c r="E2" t="n">
-        <v>87.18</v>
+        <v>87.8</v>
       </c>
       <c r="F2" t="n">
-        <v>63.5</v>
+        <v>65.3</v>
       </c>
       <c r="G2" t="n">
-        <v>55.35</v>
+        <v>57.34</v>
       </c>
     </row>
     <row r="3">
@@ -425,21 +425,21 @@
         <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>18.42</v>
+        <v>47.5</v>
       </c>
       <c r="E3" t="n">
-        <v>78.38</v>
+        <v>95.12</v>
       </c>
       <c r="F3" t="n">
-        <v>59.96</v>
+        <v>47.62</v>
       </c>
       <c r="G3" t="n">
-        <v>46.99</v>
+        <v>45.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -448,39 +448,39 @@
         <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>38.89</v>
+        <v>37.5</v>
       </c>
       <c r="E4" t="n">
-        <v>89.47</v>
+        <v>87.5</v>
       </c>
       <c r="F4" t="n">
-        <v>50.58</v>
+        <v>50.0</v>
       </c>
       <c r="G4" t="n">
-        <v>45.26</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>47.37</v>
+        <v>19.51</v>
       </c>
       <c r="E5" t="n">
-        <v>94.87</v>
+        <v>75.61</v>
       </c>
       <c r="F5" t="n">
-        <v>47.5</v>
+        <v>56.1</v>
       </c>
       <c r="G5" t="n">
-        <v>45.07</v>
+        <v>42.42</v>
       </c>
     </row>
     <row r="6">
@@ -488,50 +488,50 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>36.84</v>
+        <v>32.5</v>
       </c>
       <c r="E6" t="n">
-        <v>86.84</v>
+        <v>82.93</v>
       </c>
       <c r="F6" t="n">
-        <v>50.0</v>
+        <v>50.43</v>
       </c>
       <c r="G6" t="n">
-        <v>43.42</v>
+        <v>41.82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>34.21</v>
+        <v>20.0</v>
       </c>
       <c r="E7" t="n">
-        <v>84.62</v>
+        <v>74.36</v>
       </c>
       <c r="F7" t="n">
-        <v>50.4</v>
+        <v>54.36</v>
       </c>
       <c r="G7" t="n">
-        <v>42.65</v>
+        <v>40.42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -540,67 +540,67 @@
         <v>27</v>
       </c>
       <c r="D8" t="n">
-        <v>20.51</v>
+        <v>42.11</v>
       </c>
       <c r="E8" t="n">
-        <v>74.36</v>
+        <v>87.5</v>
       </c>
       <c r="F8" t="n">
-        <v>53.85</v>
+        <v>45.39</v>
       </c>
       <c r="G8" t="n">
-        <v>40.04</v>
+        <v>39.72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
       </c>
       <c r="D9" t="n">
-        <v>56.41</v>
+        <v>16.67</v>
       </c>
       <c r="E9" t="n">
-        <v>97.44</v>
+        <v>71.05</v>
       </c>
       <c r="F9" t="n">
-        <v>41.03</v>
+        <v>54.39</v>
       </c>
       <c r="G9" t="n">
-        <v>39.97</v>
+        <v>38.64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
       </c>
       <c r="D10" t="n">
-        <v>17.65</v>
+        <v>58.54</v>
       </c>
       <c r="E10" t="n">
-        <v>72.22</v>
+        <v>97.56</v>
       </c>
       <c r="F10" t="n">
-        <v>54.58</v>
+        <v>39.02</v>
       </c>
       <c r="G10" t="n">
-        <v>39.42</v>
+        <v>38.07</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -609,21 +609,21 @@
         <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>56.41</v>
+        <v>56.1</v>
       </c>
       <c r="E11" t="n">
-        <v>94.87</v>
+        <v>95.12</v>
       </c>
       <c r="F11" t="n">
-        <v>38.46</v>
+        <v>39.02</v>
       </c>
       <c r="G11" t="n">
-        <v>36.49</v>
+        <v>37.12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
@@ -632,16 +632,16 @@
         <v>31</v>
       </c>
       <c r="D12" t="n">
-        <v>52.63</v>
+        <v>52.5</v>
       </c>
       <c r="E12" t="n">
-        <v>92.11</v>
+        <v>92.5</v>
       </c>
       <c r="F12" t="n">
-        <v>39.47</v>
+        <v>40.0</v>
       </c>
       <c r="G12" t="n">
-        <v>36.36</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="13">
@@ -649,22 +649,22 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
       </c>
       <c r="D13" t="n">
-        <v>43.24</v>
+        <v>12.5</v>
       </c>
       <c r="E13" t="n">
-        <v>82.05</v>
+        <v>65.0</v>
       </c>
       <c r="F13" t="n">
-        <v>38.81</v>
+        <v>52.5</v>
       </c>
       <c r="G13" t="n">
-        <v>31.84</v>
+        <v>34.12</v>
       </c>
     </row>
     <row r="14">
@@ -672,50 +672,50 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>33</v>
       </c>
       <c r="D14" t="n">
-        <v>13.16</v>
+        <v>43.59</v>
       </c>
       <c r="E14" t="n">
-        <v>63.16</v>
+        <v>82.93</v>
       </c>
       <c r="F14" t="n">
-        <v>50.0</v>
+        <v>39.34</v>
       </c>
       <c r="G14" t="n">
-        <v>31.58</v>
+        <v>32.62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>34</v>
       </c>
       <c r="D15" t="n">
-        <v>34.21</v>
+        <v>35.0</v>
       </c>
       <c r="E15" t="n">
-        <v>75.68</v>
+        <v>76.92</v>
       </c>
       <c r="F15" t="n">
-        <v>41.47</v>
+        <v>41.92</v>
       </c>
       <c r="G15" t="n">
-        <v>31.38</v>
+        <v>32.25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -724,62 +724,62 @@
         <v>35</v>
       </c>
       <c r="D16" t="n">
-        <v>28.12</v>
+        <v>26.47</v>
       </c>
       <c r="E16" t="n">
-        <v>70.59</v>
+        <v>69.44</v>
       </c>
       <c r="F16" t="n">
-        <v>42.46</v>
+        <v>42.97</v>
       </c>
       <c r="G16" t="n">
-        <v>29.97</v>
+        <v>29.84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
       </c>
       <c r="D17" t="n">
-        <v>45.95</v>
+        <v>57.5</v>
       </c>
       <c r="E17" t="n">
-        <v>81.58</v>
+        <v>90.0</v>
       </c>
       <c r="F17" t="n">
-        <v>35.63</v>
+        <v>32.5</v>
       </c>
       <c r="G17" t="n">
-        <v>29.07</v>
+        <v>29.25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
         <v>37</v>
       </c>
       <c r="D18" t="n">
-        <v>57.89</v>
+        <v>43.59</v>
       </c>
       <c r="E18" t="n">
-        <v>89.47</v>
+        <v>80.0</v>
       </c>
       <c r="F18" t="n">
-        <v>31.58</v>
+        <v>36.41</v>
       </c>
       <c r="G18" t="n">
-        <v>28.25</v>
+        <v>29.13</v>
       </c>
     </row>
     <row r="19">
@@ -787,68 +787,68 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
         <v>38</v>
       </c>
       <c r="D19" t="n">
-        <v>7.89</v>
+        <v>16.22</v>
       </c>
       <c r="E19" t="n">
-        <v>57.14</v>
+        <v>61.54</v>
       </c>
       <c r="F19" t="n">
-        <v>49.25</v>
+        <v>45.32</v>
       </c>
       <c r="G19" t="n">
-        <v>28.14</v>
+        <v>27.89</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
         <v>39</v>
       </c>
       <c r="D20" t="n">
-        <v>17.14</v>
+        <v>51.35</v>
       </c>
       <c r="E20" t="n">
-        <v>62.16</v>
+        <v>84.21</v>
       </c>
       <c r="F20" t="n">
-        <v>45.02</v>
+        <v>32.86</v>
       </c>
       <c r="G20" t="n">
-        <v>27.98</v>
+        <v>27.67</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
         <v>40</v>
       </c>
       <c r="D21" t="n">
-        <v>33.33</v>
+        <v>36.36</v>
       </c>
       <c r="E21" t="n">
-        <v>71.79</v>
+        <v>72.97</v>
       </c>
       <c r="F21" t="n">
-        <v>38.46</v>
+        <v>36.61</v>
       </c>
       <c r="G21" t="n">
-        <v>27.61</v>
+        <v>26.71</v>
       </c>
     </row>
     <row r="22">
@@ -856,68 +856,68 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
         <v>41</v>
       </c>
       <c r="D22" t="n">
-        <v>54.05</v>
+        <v>7.69</v>
       </c>
       <c r="E22" t="n">
-        <v>86.11</v>
+        <v>55.56</v>
       </c>
       <c r="F22" t="n">
-        <v>32.06</v>
+        <v>47.86</v>
       </c>
       <c r="G22" t="n">
-        <v>27.6</v>
+        <v>26.59</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
         <v>42</v>
       </c>
       <c r="D23" t="n">
-        <v>38.71</v>
+        <v>53.85</v>
       </c>
       <c r="E23" t="n">
-        <v>74.29</v>
+        <v>84.21</v>
       </c>
       <c r="F23" t="n">
-        <v>35.58</v>
+        <v>30.36</v>
       </c>
       <c r="G23" t="n">
-        <v>26.43</v>
+        <v>25.57</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
         <v>43</v>
       </c>
       <c r="D24" t="n">
-        <v>44.74</v>
+        <v>55.0</v>
       </c>
       <c r="E24" t="n">
-        <v>77.78</v>
+        <v>85.0</v>
       </c>
       <c r="F24" t="n">
-        <v>33.04</v>
+        <v>30.0</v>
       </c>
       <c r="G24" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="25">
@@ -925,45 +925,45 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
         <v>44</v>
       </c>
       <c r="D25" t="n">
-        <v>55.26</v>
+        <v>31.71</v>
       </c>
       <c r="E25" t="n">
-        <v>84.21</v>
+        <v>68.29</v>
       </c>
       <c r="F25" t="n">
-        <v>28.95</v>
+        <v>36.59</v>
       </c>
       <c r="G25" t="n">
-        <v>24.38</v>
+        <v>24.99</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
         <v>45</v>
       </c>
       <c r="D26" t="n">
-        <v>54.29</v>
+        <v>75.61</v>
       </c>
       <c r="E26" t="n">
-        <v>83.33</v>
+        <v>100.0</v>
       </c>
       <c r="F26" t="n">
-        <v>29.05</v>
+        <v>24.39</v>
       </c>
       <c r="G26" t="n">
-        <v>24.21</v>
+        <v>24.39</v>
       </c>
     </row>
     <row r="27">
@@ -971,45 +971,45 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
         <v>46</v>
       </c>
       <c r="D27" t="n">
-        <v>56.41</v>
+        <v>50.0</v>
       </c>
       <c r="E27" t="n">
-        <v>84.62</v>
+        <v>80.0</v>
       </c>
       <c r="F27" t="n">
-        <v>28.21</v>
+        <v>30.0</v>
       </c>
       <c r="G27" t="n">
-        <v>23.87</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
         <v>47</v>
       </c>
       <c r="D28" t="n">
-        <v>52.63</v>
+        <v>45.0</v>
       </c>
       <c r="E28" t="n">
-        <v>81.58</v>
+        <v>76.32</v>
       </c>
       <c r="F28" t="n">
-        <v>28.95</v>
+        <v>31.32</v>
       </c>
       <c r="G28" t="n">
-        <v>23.61</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="29">
@@ -1017,22 +1017,22 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
         <v>48</v>
       </c>
       <c r="D29" t="n">
-        <v>70.27</v>
+        <v>58.54</v>
       </c>
       <c r="E29" t="n">
-        <v>94.87</v>
+        <v>85.0</v>
       </c>
       <c r="F29" t="n">
-        <v>24.6</v>
+        <v>26.46</v>
       </c>
       <c r="G29" t="n">
-        <v>23.34</v>
+        <v>22.49</v>
       </c>
     </row>
     <row r="30">
@@ -1040,22 +1040,22 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
         <v>49</v>
       </c>
       <c r="D30" t="n">
-        <v>76.92</v>
+        <v>7.5</v>
       </c>
       <c r="E30" t="n">
-        <v>100.0</v>
+        <v>51.28</v>
       </c>
       <c r="F30" t="n">
-        <v>23.08</v>
+        <v>43.78</v>
       </c>
       <c r="G30" t="n">
-        <v>23.08</v>
+        <v>22.45</v>
       </c>
     </row>
     <row r="31">
@@ -1063,91 +1063,91 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31" t="s">
         <v>50</v>
       </c>
       <c r="D31" t="n">
-        <v>34.21</v>
+        <v>69.23</v>
       </c>
       <c r="E31" t="n">
-        <v>67.57</v>
+        <v>92.68</v>
       </c>
       <c r="F31" t="n">
-        <v>33.36</v>
+        <v>23.45</v>
       </c>
       <c r="G31" t="n">
-        <v>22.54</v>
+        <v>21.74</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
         <v>51</v>
       </c>
       <c r="D32" t="n">
-        <v>28.12</v>
+        <v>39.02</v>
       </c>
       <c r="E32" t="n">
-        <v>63.33</v>
+        <v>70.0</v>
       </c>
       <c r="F32" t="n">
-        <v>35.21</v>
+        <v>30.98</v>
       </c>
       <c r="G32" t="n">
-        <v>22.3</v>
+        <v>21.68</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
         <v>52</v>
       </c>
       <c r="D33" t="n">
-        <v>41.03</v>
+        <v>35.0</v>
       </c>
       <c r="E33" t="n">
-        <v>71.79</v>
+        <v>66.67</v>
       </c>
       <c r="F33" t="n">
-        <v>30.77</v>
+        <v>31.67</v>
       </c>
       <c r="G33" t="n">
-        <v>22.09</v>
+        <v>21.11</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C34" t="s">
         <v>53</v>
       </c>
       <c r="D34" t="n">
-        <v>65.79</v>
+        <v>66.67</v>
       </c>
       <c r="E34" t="n">
-        <v>88.89</v>
+        <v>89.47</v>
       </c>
       <c r="F34" t="n">
-        <v>23.1</v>
+        <v>22.81</v>
       </c>
       <c r="G34" t="n">
-        <v>20.53</v>
+        <v>20.41</v>
       </c>
     </row>
     <row r="35">
@@ -1161,131 +1161,131 @@
         <v>54</v>
       </c>
       <c r="D35" t="n">
-        <v>21.05</v>
+        <v>22.86</v>
       </c>
       <c r="E35" t="n">
-        <v>56.76</v>
+        <v>57.58</v>
       </c>
       <c r="F35" t="n">
-        <v>35.7</v>
+        <v>34.72</v>
       </c>
       <c r="G35" t="n">
-        <v>20.26</v>
+        <v>19.99</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
         <v>55</v>
       </c>
       <c r="D36" t="n">
-        <v>43.59</v>
+        <v>56.1</v>
       </c>
       <c r="E36" t="n">
-        <v>71.79</v>
+        <v>80.49</v>
       </c>
       <c r="F36" t="n">
-        <v>28.21</v>
+        <v>24.39</v>
       </c>
       <c r="G36" t="n">
-        <v>20.25</v>
+        <v>19.63</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C37" t="s">
         <v>56</v>
       </c>
       <c r="D37" t="n">
-        <v>7.89</v>
+        <v>46.34</v>
       </c>
       <c r="E37" t="n">
-        <v>48.65</v>
+        <v>73.17</v>
       </c>
       <c r="F37" t="n">
-        <v>40.75</v>
+        <v>26.83</v>
       </c>
       <c r="G37" t="n">
-        <v>19.83</v>
+        <v>19.63</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
         <v>57</v>
       </c>
       <c r="D38" t="n">
-        <v>21.21</v>
+        <v>26.47</v>
       </c>
       <c r="E38" t="n">
-        <v>56.25</v>
+        <v>59.38</v>
       </c>
       <c r="F38" t="n">
-        <v>35.04</v>
+        <v>32.9</v>
       </c>
       <c r="G38" t="n">
-        <v>19.71</v>
+        <v>19.54</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
         <v>58</v>
       </c>
       <c r="D39" t="n">
-        <v>21.21</v>
+        <v>20.0</v>
       </c>
       <c r="E39" t="n">
-        <v>56.25</v>
+        <v>55.26</v>
       </c>
       <c r="F39" t="n">
-        <v>35.04</v>
+        <v>35.26</v>
       </c>
       <c r="G39" t="n">
-        <v>19.71</v>
+        <v>19.49</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C40" t="s">
         <v>59</v>
       </c>
       <c r="D40" t="n">
-        <v>61.54</v>
+        <v>70.0</v>
       </c>
       <c r="E40" t="n">
-        <v>84.21</v>
+        <v>89.74</v>
       </c>
       <c r="F40" t="n">
-        <v>22.67</v>
+        <v>19.74</v>
       </c>
       <c r="G40" t="n">
-        <v>19.09</v>
+        <v>17.72</v>
       </c>
     </row>
     <row r="41">
@@ -1293,22 +1293,22 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
         <v>60</v>
       </c>
       <c r="D41" t="n">
-        <v>28.57</v>
+        <v>70.73</v>
       </c>
       <c r="E41" t="n">
-        <v>60.0</v>
+        <v>90.24</v>
       </c>
       <c r="F41" t="n">
-        <v>31.43</v>
+        <v>19.51</v>
       </c>
       <c r="G41" t="n">
-        <v>18.86</v>
+        <v>17.61</v>
       </c>
     </row>
     <row r="42">
@@ -1316,68 +1316,68 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
         <v>61</v>
       </c>
       <c r="D42" t="n">
-        <v>68.42</v>
+        <v>20.0</v>
       </c>
       <c r="E42" t="n">
-        <v>89.19</v>
+        <v>52.94</v>
       </c>
       <c r="F42" t="n">
-        <v>20.77</v>
+        <v>32.94</v>
       </c>
       <c r="G42" t="n">
-        <v>18.52</v>
+        <v>17.44</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
         <v>62</v>
       </c>
       <c r="D43" t="n">
-        <v>69.23</v>
+        <v>65.0</v>
       </c>
       <c r="E43" t="n">
-        <v>89.74</v>
+        <v>85.0</v>
       </c>
       <c r="F43" t="n">
-        <v>20.51</v>
+        <v>20.0</v>
       </c>
       <c r="G43" t="n">
-        <v>18.41</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C44" t="s">
         <v>63</v>
       </c>
       <c r="D44" t="n">
-        <v>18.42</v>
+        <v>17.5</v>
       </c>
       <c r="E44" t="n">
-        <v>52.78</v>
+        <v>50.0</v>
       </c>
       <c r="F44" t="n">
-        <v>34.36</v>
+        <v>32.5</v>
       </c>
       <c r="G44" t="n">
-        <v>18.13</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="45">
@@ -1385,22 +1385,22 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
         <v>64</v>
       </c>
       <c r="D45" t="n">
-        <v>37.84</v>
+        <v>78.05</v>
       </c>
       <c r="E45" t="n">
-        <v>64.86</v>
+        <v>95.12</v>
       </c>
       <c r="F45" t="n">
-        <v>27.03</v>
+        <v>17.07</v>
       </c>
       <c r="G45" t="n">
-        <v>17.53</v>
+        <v>16.24</v>
       </c>
     </row>
     <row r="46">
@@ -1408,68 +1408,68 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C46" t="s">
         <v>65</v>
       </c>
       <c r="D46" t="n">
-        <v>31.58</v>
+        <v>30.0</v>
       </c>
       <c r="E46" t="n">
-        <v>60.53</v>
+        <v>57.5</v>
       </c>
       <c r="F46" t="n">
-        <v>28.95</v>
+        <v>27.5</v>
       </c>
       <c r="G46" t="n">
-        <v>17.52</v>
+        <v>15.81</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C47" t="s">
         <v>66</v>
       </c>
       <c r="D47" t="n">
-        <v>10.81</v>
+        <v>35.9</v>
       </c>
       <c r="E47" t="n">
-        <v>47.22</v>
+        <v>61.54</v>
       </c>
       <c r="F47" t="n">
-        <v>36.41</v>
+        <v>25.64</v>
       </c>
       <c r="G47" t="n">
-        <v>17.19</v>
+        <v>15.78</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C48" t="s">
         <v>67</v>
       </c>
       <c r="D48" t="n">
-        <v>17.14</v>
+        <v>18.92</v>
       </c>
       <c r="E48" t="n">
         <v>50.0</v>
       </c>
       <c r="F48" t="n">
-        <v>32.86</v>
+        <v>31.08</v>
       </c>
       <c r="G48" t="n">
-        <v>16.43</v>
+        <v>15.54</v>
       </c>
     </row>
     <row r="49">
@@ -1477,22 +1477,22 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C49" t="s">
         <v>68</v>
       </c>
       <c r="D49" t="n">
-        <v>71.79</v>
+        <v>10.26</v>
       </c>
       <c r="E49" t="n">
-        <v>89.74</v>
+        <v>44.74</v>
       </c>
       <c r="F49" t="n">
-        <v>17.95</v>
+        <v>34.48</v>
       </c>
       <c r="G49" t="n">
-        <v>16.11</v>
+        <v>15.43</v>
       </c>
     </row>
     <row r="50">
@@ -1500,88 +1500,88 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C50" t="s">
         <v>69</v>
       </c>
       <c r="D50" t="n">
-        <v>55.26</v>
+        <v>29.73</v>
       </c>
       <c r="E50" t="n">
-        <v>76.32</v>
+        <v>56.76</v>
       </c>
       <c r="F50" t="n">
-        <v>21.05</v>
+        <v>27.03</v>
       </c>
       <c r="G50" t="n">
-        <v>16.07</v>
+        <v>15.34</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s">
         <v>70</v>
       </c>
       <c r="D51" t="n">
-        <v>18.92</v>
+        <v>73.17</v>
       </c>
       <c r="E51" t="n">
-        <v>50.0</v>
+        <v>90.0</v>
       </c>
       <c r="F51" t="n">
-        <v>31.08</v>
+        <v>16.83</v>
       </c>
       <c r="G51" t="n">
-        <v>15.54</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
         <v>71</v>
       </c>
       <c r="D52" t="n">
-        <v>66.67</v>
+        <v>55.0</v>
       </c>
       <c r="E52" t="n">
-        <v>84.62</v>
+        <v>75.0</v>
       </c>
       <c r="F52" t="n">
-        <v>17.95</v>
+        <v>20.0</v>
       </c>
       <c r="G52" t="n">
-        <v>15.19</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C53" t="s">
         <v>72</v>
       </c>
       <c r="D53" t="n">
-        <v>82.05</v>
+        <v>70.73</v>
       </c>
       <c r="E53" t="n">
-        <v>97.44</v>
+        <v>87.8</v>
       </c>
       <c r="F53" t="n">
-        <v>15.38</v>
+        <v>17.07</v>
       </c>
       <c r="G53" t="n">
         <v>14.99</v>
@@ -1592,73 +1592,73 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C54" t="s">
         <v>73</v>
       </c>
       <c r="D54" t="n">
-        <v>74.36</v>
+        <v>20.51</v>
       </c>
       <c r="E54" t="n">
-        <v>89.74</v>
+        <v>50.0</v>
       </c>
       <c r="F54" t="n">
-        <v>15.38</v>
+        <v>29.49</v>
       </c>
       <c r="G54" t="n">
-        <v>13.81</v>
+        <v>14.74</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
         <v>74</v>
       </c>
       <c r="D55" t="n">
-        <v>74.36</v>
+        <v>68.29</v>
       </c>
       <c r="E55" t="n">
-        <v>89.47</v>
+        <v>85.37</v>
       </c>
       <c r="F55" t="n">
-        <v>15.11</v>
+        <v>17.07</v>
       </c>
       <c r="G55" t="n">
-        <v>13.52</v>
+        <v>14.57</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
         <v>75</v>
       </c>
       <c r="D56" t="n">
-        <v>68.42</v>
+        <v>76.92</v>
       </c>
       <c r="E56" t="n">
-        <v>84.21</v>
+        <v>92.5</v>
       </c>
       <c r="F56" t="n">
-        <v>15.79</v>
+        <v>15.58</v>
       </c>
       <c r="G56" t="n">
-        <v>13.3</v>
+        <v>14.41</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
@@ -1667,108 +1667,108 @@
         <v>76</v>
       </c>
       <c r="D57" t="n">
-        <v>78.38</v>
+        <v>80.49</v>
       </c>
       <c r="E57" t="n">
-        <v>92.11</v>
+        <v>95.12</v>
       </c>
       <c r="F57" t="n">
-        <v>13.73</v>
+        <v>14.63</v>
       </c>
       <c r="G57" t="n">
-        <v>12.64</v>
+        <v>13.92</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C58" t="s">
         <v>77</v>
       </c>
       <c r="D58" t="n">
-        <v>82.05</v>
+        <v>75.61</v>
       </c>
       <c r="E58" t="n">
-        <v>94.87</v>
+        <v>90.24</v>
       </c>
       <c r="F58" t="n">
-        <v>12.82</v>
+        <v>14.63</v>
       </c>
       <c r="G58" t="n">
-        <v>12.16</v>
+        <v>13.21</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C59" t="s">
         <v>78</v>
       </c>
       <c r="D59" t="n">
-        <v>15.79</v>
+        <v>73.17</v>
       </c>
       <c r="E59" t="n">
-        <v>43.24</v>
+        <v>87.8</v>
       </c>
       <c r="F59" t="n">
-        <v>27.45</v>
+        <v>14.63</v>
       </c>
       <c r="G59" t="n">
-        <v>11.87</v>
+        <v>12.85</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C60" t="s">
         <v>79</v>
       </c>
       <c r="D60" t="n">
-        <v>79.49</v>
+        <v>15.0</v>
       </c>
       <c r="E60" t="n">
-        <v>92.31</v>
+        <v>43.59</v>
       </c>
       <c r="F60" t="n">
-        <v>12.82</v>
+        <v>28.59</v>
       </c>
       <c r="G60" t="n">
-        <v>11.83</v>
+        <v>12.46</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C61" t="s">
         <v>80</v>
       </c>
       <c r="D61" t="n">
-        <v>74.36</v>
+        <v>80.49</v>
       </c>
       <c r="E61" t="n">
-        <v>87.18</v>
+        <v>92.68</v>
       </c>
       <c r="F61" t="n">
-        <v>12.82</v>
+        <v>12.2</v>
       </c>
       <c r="G61" t="n">
-        <v>11.18</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="62">
@@ -1782,154 +1782,154 @@
         <v>81</v>
       </c>
       <c r="D62" t="n">
-        <v>50.0</v>
+        <v>8.33</v>
       </c>
       <c r="E62" t="n">
-        <v>65.79</v>
+        <v>37.84</v>
       </c>
       <c r="F62" t="n">
-        <v>15.79</v>
+        <v>29.5</v>
       </c>
       <c r="G62" t="n">
-        <v>10.39</v>
+        <v>11.16</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C63" t="s">
         <v>82</v>
       </c>
       <c r="D63" t="n">
-        <v>63.16</v>
+        <v>47.5</v>
       </c>
       <c r="E63" t="n">
-        <v>76.32</v>
+        <v>64.1</v>
       </c>
       <c r="F63" t="n">
-        <v>13.16</v>
+        <v>16.6</v>
       </c>
       <c r="G63" t="n">
-        <v>10.04</v>
+        <v>10.64</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C64" t="s">
         <v>83</v>
       </c>
       <c r="D64" t="n">
-        <v>78.95</v>
+        <v>73.17</v>
       </c>
       <c r="E64" t="n">
-        <v>89.19</v>
+        <v>85.0</v>
       </c>
       <c r="F64" t="n">
-        <v>10.24</v>
+        <v>11.83</v>
       </c>
       <c r="G64" t="n">
-        <v>9.13</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C65" t="s">
         <v>84</v>
       </c>
       <c r="D65" t="n">
-        <v>8.82</v>
+        <v>65.0</v>
       </c>
       <c r="E65" t="n">
-        <v>34.29</v>
+        <v>77.5</v>
       </c>
       <c r="F65" t="n">
-        <v>25.46</v>
+        <v>12.5</v>
       </c>
       <c r="G65" t="n">
-        <v>8.73</v>
+        <v>9.69</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C66" t="s">
         <v>85</v>
       </c>
       <c r="D66" t="n">
-        <v>74.36</v>
+        <v>80.0</v>
       </c>
       <c r="E66" t="n">
-        <v>84.21</v>
+        <v>89.74</v>
       </c>
       <c r="F66" t="n">
-        <v>9.85</v>
+        <v>9.74</v>
       </c>
       <c r="G66" t="n">
-        <v>8.3</v>
+        <v>8.74</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s">
         <v>86</v>
       </c>
       <c r="D67" t="n">
-        <v>18.42</v>
+        <v>58.97</v>
       </c>
       <c r="E67" t="n">
-        <v>39.39</v>
+        <v>71.05</v>
       </c>
       <c r="F67" t="n">
-        <v>20.97</v>
+        <v>12.08</v>
       </c>
       <c r="G67" t="n">
-        <v>8.26</v>
+        <v>8.58</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C68" t="s">
         <v>87</v>
       </c>
       <c r="D68" t="n">
-        <v>62.16</v>
+        <v>10.81</v>
       </c>
       <c r="E68" t="n">
-        <v>72.97</v>
+        <v>34.29</v>
       </c>
       <c r="F68" t="n">
-        <v>10.81</v>
+        <v>23.47</v>
       </c>
       <c r="G68" t="n">
-        <v>7.89</v>
+        <v>8.05</v>
       </c>
     </row>
     <row r="69">
@@ -1937,73 +1937,73 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C69" t="s">
         <v>88</v>
       </c>
       <c r="D69" t="n">
-        <v>11.43</v>
+        <v>82.93</v>
       </c>
       <c r="E69" t="n">
-        <v>33.33</v>
+        <v>90.0</v>
       </c>
       <c r="F69" t="n">
-        <v>21.9</v>
+        <v>7.07</v>
       </c>
       <c r="G69" t="n">
-        <v>7.3</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C70" t="s">
         <v>89</v>
       </c>
       <c r="D70" t="n">
-        <v>13.16</v>
+        <v>20.0</v>
       </c>
       <c r="E70" t="n">
-        <v>32.35</v>
+        <v>37.14</v>
       </c>
       <c r="F70" t="n">
-        <v>19.2</v>
+        <v>17.14</v>
       </c>
       <c r="G70" t="n">
-        <v>6.21</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C71" t="s">
         <v>90</v>
       </c>
       <c r="D71" t="n">
-        <v>92.31</v>
+        <v>12.5</v>
       </c>
       <c r="E71" t="n">
-        <v>97.44</v>
+        <v>31.43</v>
       </c>
       <c r="F71" t="n">
-        <v>5.13</v>
+        <v>18.93</v>
       </c>
       <c r="G71" t="n">
-        <v>5.0</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B72" t="s">
         <v>20</v>
@@ -2012,16 +2012,16 @@
         <v>91</v>
       </c>
       <c r="D72" t="n">
-        <v>67.57</v>
+        <v>69.23</v>
       </c>
       <c r="E72" t="n">
-        <v>74.29</v>
+        <v>75.68</v>
       </c>
       <c r="F72" t="n">
-        <v>6.72</v>
+        <v>6.44</v>
       </c>
       <c r="G72" t="n">
-        <v>4.99</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="73">
@@ -2029,45 +2029,45 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C73" t="s">
         <v>92</v>
       </c>
       <c r="D73" t="n">
-        <v>89.74</v>
+        <v>92.68</v>
       </c>
       <c r="E73" t="n">
-        <v>94.87</v>
+        <v>97.56</v>
       </c>
       <c r="F73" t="n">
-        <v>5.13</v>
+        <v>4.88</v>
       </c>
       <c r="G73" t="n">
-        <v>4.87</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C74" t="s">
         <v>93</v>
       </c>
       <c r="D74" t="n">
-        <v>84.62</v>
+        <v>90.24</v>
       </c>
       <c r="E74" t="n">
-        <v>89.74</v>
+        <v>95.12</v>
       </c>
       <c r="F74" t="n">
-        <v>5.13</v>
+        <v>4.88</v>
       </c>
       <c r="G74" t="n">
-        <v>4.6</v>
+        <v>4.64</v>
       </c>
     </row>
     <row r="75">
@@ -2075,22 +2075,22 @@
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C75" t="s">
         <v>94</v>
       </c>
       <c r="D75" t="n">
-        <v>84.62</v>
+        <v>85.37</v>
       </c>
       <c r="E75" t="n">
-        <v>89.47</v>
+        <v>90.24</v>
       </c>
       <c r="F75" t="n">
-        <v>4.86</v>
+        <v>4.88</v>
       </c>
       <c r="G75" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="76">
@@ -2104,16 +2104,16 @@
         <v>95</v>
       </c>
       <c r="D76" t="n">
-        <v>61.54</v>
+        <v>60.98</v>
       </c>
       <c r="E76" t="n">
-        <v>66.67</v>
+        <v>65.85</v>
       </c>
       <c r="F76" t="n">
-        <v>5.13</v>
+        <v>4.88</v>
       </c>
       <c r="G76" t="n">
-        <v>3.42</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="77">
@@ -2121,114 +2121,114 @@
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C77" t="s">
         <v>96</v>
       </c>
       <c r="D77" t="n">
-        <v>13.51</v>
+        <v>87.18</v>
       </c>
       <c r="E77" t="n">
-        <v>20.59</v>
+        <v>89.74</v>
       </c>
       <c r="F77" t="n">
-        <v>7.07</v>
+        <v>2.56</v>
       </c>
       <c r="G77" t="n">
-        <v>1.46</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C78" t="s">
         <v>97</v>
       </c>
       <c r="D78" t="n">
-        <v>5.41</v>
+        <v>12.82</v>
       </c>
       <c r="E78" t="n">
-        <v>10.53</v>
+        <v>22.22</v>
       </c>
       <c r="F78" t="n">
-        <v>5.12</v>
+        <v>9.4</v>
       </c>
       <c r="G78" t="n">
-        <v>0.54</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C79" t="s">
         <v>98</v>
       </c>
       <c r="D79" t="n">
-        <v>89.19</v>
+        <v>5.13</v>
       </c>
       <c r="E79" t="n">
-        <v>89.19</v>
+        <v>10.0</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.0</v>
+        <v>4.87</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.0</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C80" t="s">
         <v>99</v>
       </c>
       <c r="D80" t="n">
-        <v>81.58</v>
+        <v>82.5</v>
       </c>
       <c r="E80" t="n">
-        <v>77.78</v>
+        <v>78.95</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.8</v>
+        <v>-3.55</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.96</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C81" t="s">
         <v>100</v>
       </c>
       <c r="D81" t="n">
-        <v>87.18</v>
+        <v>87.8</v>
       </c>
       <c r="E81" t="n">
-        <v>82.05</v>
+        <v>82.93</v>
       </c>
       <c r="F81" t="n">
-        <v>-5.13</v>
+        <v>-4.88</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.21</v>
+        <v>-4.05</v>
       </c>
     </row>
     <row r="82">
@@ -2242,16 +2242,16 @@
         <v>101</v>
       </c>
       <c r="D82" t="n">
-        <v>89.74</v>
+        <v>90.24</v>
       </c>
       <c r="E82" t="n">
-        <v>71.79</v>
+        <v>70.73</v>
       </c>
       <c r="F82" t="n">
-        <v>-17.95</v>
+        <v>-19.51</v>
       </c>
       <c r="G82" t="n">
-        <v>-12.89</v>
+        <v>-13.8</v>
       </c>
     </row>
   </sheetData>
